--- a/resob11191035.xlsx
+++ b/resob11191035.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ex\SAHS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{89A7EA90-31C7-404B-8C49-36EDC45F2BA2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E75E96B6-331E-4806-B1E5-66238AC25CBC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,7 +510,7 @@
   <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/resob11191035.xlsx
+++ b/resob11191035.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ex\SAHS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E75E96B6-331E-4806-B1E5-66238AC25CBC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9A861BE1-F2FF-494A-BF73-96B4B5D7F100}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,7 +510,7 @@
   <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -605,13 +605,13 @@
       <c r="F2">
         <v>0.85395076144601756</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>0.82314838559620229</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>0.86160228156598395</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>0.7012385879731875</v>
       </c>
       <c r="J2" s="2">
@@ -685,13 +685,13 @@
       <c r="F3">
         <v>0.82363147393625846</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>0.74775004046659976</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>0.80771674199931587</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>0.55658393654917804</v>
       </c>
       <c r="J3" s="2">
@@ -765,13 +765,13 @@
       <c r="F4">
         <v>0.74697297170506793</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>0.77402307632226552</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>0.89945497551938602</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>0.51401674677776554</v>
       </c>
       <c r="J4" s="2">
@@ -845,13 +845,13 @@
       <c r="F5">
         <v>0.66221123896638656</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>0.79196110249871721</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>0.72552793284500605</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>0.55135326658437345</v>
       </c>
       <c r="J5" s="2">
@@ -922,13 +922,13 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>0</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>0</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>0</v>
       </c>
       <c r="J6" s="2">
@@ -1000,13 +1000,13 @@
       <c r="F7">
         <v>0.40949303061369979</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>0.63931839707322702</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>0.80912695406217638</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>0.20383441706593661</v>
       </c>
       <c r="J7" s="2">
@@ -1080,13 +1080,13 @@
       <c r="F8">
         <v>0.63957115258913499</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>0.65575793219472389</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>0.76581589799476402</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>0.4288310154235293</v>
       </c>
       <c r="J8" s="2">
@@ -1157,13 +1157,13 @@
       <c r="F9">
         <v>0.66300343362868808</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>0.78630981845934844</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>0.88602128613954245</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>0.54805443850599067</v>
       </c>
       <c r="J9" s="2">
@@ -1234,13 +1234,13 @@
       <c r="F10">
         <v>0.44283077064353987</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>0.62243745702271491</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>0.58753313544659436</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>0.16512511357360229</v>
       </c>
       <c r="J10" s="2">
@@ -1311,13 +1311,13 @@
       <c r="F11">
         <v>0.83991103283640922</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>0.78939906853745556</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>0.85594104538087512</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>0.66248107823239855</v>
       </c>
       <c r="J11" s="2">
@@ -1388,13 +1388,13 @@
       <c r="F12">
         <v>0.30375915096866352</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>0.72200822620582672</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>0.58653572813024946</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>0.17246766746864201</v>
       </c>
       <c r="J12" s="2">
@@ -1465,13 +1465,13 @@
       <c r="F13">
         <v>0.41066770072691128</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>0.70965807636680267</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>0.84148577029185423</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <v>0.28548189993202783</v>
       </c>
       <c r="J13" s="2">
@@ -1542,13 +1542,13 @@
       <c r="F14">
         <v>0.72491546663268336</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>0.68974178305008693</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <v>0.89373481488085948</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="3">
         <v>0.40832546182019092</v>
       </c>
       <c r="J14" s="2">
@@ -1619,13 +1619,13 @@
       <c r="F15">
         <v>0.4262153594743282</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>0.65535573778781375</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="3">
         <v>0.7285471537807986</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="3">
         <v>0.2061287421026356</v>
       </c>
       <c r="J15" s="2">
@@ -1696,13 +1696,13 @@
       <c r="F16">
         <v>0.40328620410347971</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>0.61713130107553682</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="3">
         <v>0.81279848573092606</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3">
         <v>0.1718866909294276</v>
       </c>
       <c r="J16" s="2">
@@ -1773,13 +1773,13 @@
       <c r="F17">
         <v>0.302944054557368</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>0.50481933689915159</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="3">
         <v>0.66590909090909089</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="3">
         <v>8.7475850988590204E-2</v>
       </c>
       <c r="J17" s="2">
@@ -1850,13 +1850,13 @@
       <c r="F18">
         <v>0.73495904923431121</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>0.70549617807335774</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="3">
         <v>0.85290651809299067</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="3">
         <v>0.45740354104191372</v>
       </c>
       <c r="J18" s="2">
@@ -1927,13 +1927,13 @@
       <c r="F19">
         <v>0.59852587463579554</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>0.72518445742337667</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <v>0.82916213471682132</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <v>0.39539613940326679</v>
       </c>
       <c r="J19" s="2">
@@ -2004,13 +2004,13 @@
       <c r="F20">
         <v>0.94484796025891926</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>0.74380692805546178</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="3">
         <v>0.76720961127476461</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <v>0.7004501553096486</v>
       </c>
       <c r="J20" s="2">
@@ -2081,13 +2081,13 @@
       <c r="F21">
         <v>0.45049326341185031</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>0.70226543649502382</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="3">
         <v>0.81102886444462818</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="3">
         <v>0.29648564207887762</v>
       </c>
       <c r="J21" s="2">
@@ -2158,13 +2158,13 @@
       <c r="F22">
         <v>0.83663873457220927</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>0.70084510192024618</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="3">
         <v>0.87334564210773102</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <v>0.59348466260768695</v>
       </c>
       <c r="J22" s="2">
@@ -2235,13 +2235,13 @@
       <c r="F23">
         <v>0.78185450259480682</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>0.75977014769893403</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="3">
         <v>0.79335382896476414</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="3">
         <v>0.58014096492526268</v>
       </c>
       <c r="J23" s="2">
@@ -2312,13 +2312,13 @@
       <c r="F24">
         <v>0.59094014488802415</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>0.67573581769194857</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="3">
         <v>0.75703444973996026</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="3">
         <v>0.39484754633155139</v>
       </c>
       <c r="J24" s="2">
